--- a/Archivos con versiones antiguas/OC_Valen_FI0123_FF0924_v1.xlsx
+++ b/Archivos con versiones antiguas/OC_Valen_FI0123_FF0924_v1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA93F0D-B526-4D20-8084-E9108B74B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{EC4E2B7D-63E2-473C-AFC8-C2EBC8BB5CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBE5A793-8663-40E7-ACCE-66B4096966AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>pred</t>
-  </si>
-  <si>
-    <t>threshold</t>
+    <t>toggle_false</t>
   </si>
 </sst>
 </file>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,41 +419,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>44929</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
@@ -460,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>44931</v>
       </c>
@@ -468,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>44932</v>
       </c>
@@ -476,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>44935</v>
       </c>
@@ -484,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>44936</v>
       </c>
@@ -492,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>44937</v>
       </c>
@@ -500,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>44938</v>
       </c>
@@ -508,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>44939</v>
       </c>
@@ -516,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>44943</v>
       </c>
@@ -524,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>44944</v>
       </c>
@@ -532,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>44945</v>
       </c>
@@ -540,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>44946</v>
       </c>
@@ -548,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44949</v>
       </c>
@@ -556,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44950</v>
       </c>
@@ -564,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>44951</v>
       </c>
@@ -572,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>44952</v>
       </c>
@@ -580,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>44953</v>
       </c>
@@ -588,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>44956</v>
       </c>
@@ -596,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>44957</v>
       </c>
@@ -604,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>44958</v>
       </c>
@@ -612,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44959</v>
       </c>
@@ -620,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44960</v>
       </c>
@@ -628,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44963</v>
       </c>
@@ -636,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44964</v>
       </c>
@@ -644,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44965</v>
       </c>
@@ -652,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44966</v>
       </c>
@@ -660,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44967</v>
       </c>
@@ -668,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44970</v>
       </c>
@@ -676,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44971</v>
       </c>
@@ -684,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44972</v>
       </c>
@@ -692,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44973</v>
       </c>
@@ -700,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44974</v>
       </c>
@@ -708,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44978</v>
       </c>
@@ -716,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44979</v>
       </c>
@@ -724,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44980</v>
       </c>
@@ -732,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44981</v>
       </c>
@@ -740,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44984</v>
       </c>
@@ -748,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44985</v>
       </c>
@@ -756,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44986</v>
       </c>
@@ -764,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44987</v>
       </c>
@@ -772,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44988</v>
       </c>
@@ -780,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44991</v>
       </c>
@@ -788,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44992</v>
       </c>
@@ -796,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44993</v>
       </c>
@@ -804,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44994</v>
       </c>
@@ -812,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44995</v>
       </c>
@@ -820,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44998</v>
       </c>
@@ -828,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44999</v>
       </c>
@@ -836,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>45000</v>
       </c>
@@ -844,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>45001</v>
       </c>
@@ -852,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>45002</v>
       </c>
@@ -860,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>45005</v>
       </c>
@@ -868,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>45006</v>
       </c>
@@ -876,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>45007</v>
       </c>
@@ -884,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>45008</v>
       </c>
@@ -892,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>45009</v>
       </c>
@@ -900,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>45012</v>
       </c>
@@ -908,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>45013</v>
       </c>
@@ -916,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>45014</v>
       </c>
@@ -924,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>45015</v>
       </c>
@@ -932,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>45016</v>
       </c>
@@ -940,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>45019</v>
       </c>
@@ -948,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>45020</v>
       </c>
@@ -956,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>45021</v>
       </c>
@@ -964,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>45022</v>
       </c>
@@ -972,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>45026</v>
       </c>
@@ -980,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>45027</v>
       </c>
@@ -988,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>45028</v>
       </c>
@@ -996,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>45029</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>45030</v>
       </c>
@@ -1012,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>45033</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>45034</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>45035</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>45036</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>45037</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>45040</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>45041</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>45042</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>45043</v>
       </c>
@@ -1084,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>45044</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>45047</v>
       </c>
@@ -1100,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>45048</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>45049</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>45050</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>45051</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>45054</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>45055</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>45056</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>45057</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>45058</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>45061</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>45062</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>45063</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>45064</v>
       </c>
@@ -1204,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>45065</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>45068</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>45069</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>45070</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>45071</v>
       </c>
@@ -1244,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>45072</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>45076</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>45077</v>
       </c>
@@ -1268,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>45078</v>
       </c>
@@ -1276,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>45079</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>45082</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>45083</v>
       </c>
@@ -1300,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>45084</v>
       </c>
@@ -1308,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>45085</v>
       </c>
@@ -1316,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>45086</v>
       </c>
@@ -1324,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>45089</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>45090</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>45091</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>45092</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>45093</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>45097</v>
       </c>
@@ -1372,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>45098</v>
       </c>
@@ -1380,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>45099</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>45100</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>45103</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>45104</v>
       </c>
@@ -1412,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>45105</v>
       </c>
@@ -1420,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>45106</v>
       </c>
@@ -1428,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>45107</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>45110</v>
       </c>
@@ -1444,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>45112</v>
       </c>
@@ -1452,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>45113</v>
       </c>
@@ -1460,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>45114</v>
       </c>
@@ -1468,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>45117</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>45118</v>
       </c>
@@ -1484,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>45119</v>
       </c>
@@ -1492,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>45120</v>
       </c>
@@ -1500,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>45121</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>45124</v>
       </c>
@@ -1516,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>45125</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>45126</v>
       </c>
@@ -1532,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>45127</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>45128</v>
       </c>
@@ -1548,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>45131</v>
       </c>
@@ -1556,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>45132</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>45133</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>45134</v>
       </c>
@@ -1580,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>45135</v>
       </c>
@@ -1588,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>45138</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>45139</v>
       </c>
@@ -1604,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>45140</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>45141</v>
       </c>
@@ -1620,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>45142</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>45145</v>
       </c>
@@ -1636,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>45146</v>
       </c>
@@ -1644,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>45147</v>
       </c>
@@ -1652,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>45148</v>
       </c>
@@ -1660,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>45149</v>
       </c>
@@ -1668,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>45152</v>
       </c>
@@ -1676,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>45153</v>
       </c>
@@ -1684,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>45154</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>45155</v>
       </c>
@@ -1700,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>45156</v>
       </c>
@@ -1708,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>45159</v>
       </c>
@@ -1716,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>45160</v>
       </c>
@@ -1724,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>45161</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>45162</v>
       </c>
@@ -1740,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>45163</v>
       </c>
@@ -1748,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>45166</v>
       </c>
@@ -1756,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>45167</v>
       </c>
@@ -1764,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>45168</v>
       </c>
@@ -1772,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>45169</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>45170</v>
       </c>
@@ -1788,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>45174</v>
       </c>
@@ -1796,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>45175</v>
       </c>
@@ -1804,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>45176</v>
       </c>
@@ -1812,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>45177</v>
       </c>
@@ -1820,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>45180</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>45181</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>45182</v>
       </c>
@@ -1844,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>45183</v>
       </c>
@@ -1852,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>45184</v>
       </c>
@@ -1860,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>45187</v>
       </c>
@@ -1868,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>45188</v>
       </c>
@@ -1876,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>45189</v>
       </c>
@@ -1884,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>45190</v>
       </c>
@@ -1892,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>45191</v>
       </c>
@@ -1900,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>45194</v>
       </c>
@@ -1908,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>45195</v>
       </c>
@@ -1916,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>45196</v>
       </c>
@@ -1924,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>45197</v>
       </c>
@@ -1932,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>45198</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>45201</v>
       </c>
@@ -1948,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>45202</v>
       </c>
@@ -1956,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>45203</v>
       </c>
@@ -1964,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>45204</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" s="2">
         <v>45205</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194" s="2">
         <v>45208</v>
       </c>
@@ -1988,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195" s="2">
         <v>45209</v>
       </c>
@@ -1996,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" s="2">
         <v>45210</v>
       </c>
@@ -2004,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" s="2">
         <v>45211</v>
       </c>
@@ -2012,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" s="2">
         <v>45212</v>
       </c>
@@ -2020,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" s="2">
         <v>45215</v>
       </c>
@@ -2028,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" s="2">
         <v>45216</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201" s="2">
         <v>45217</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" s="2">
         <v>45218</v>
       </c>
@@ -2052,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203" s="2">
         <v>45219</v>
       </c>
@@ -2060,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" s="2">
         <v>45222</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" s="2">
         <v>45223</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" s="2">
         <v>45224</v>
       </c>
@@ -2084,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" s="2">
         <v>45225</v>
       </c>
@@ -2092,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208" s="2">
         <v>45226</v>
       </c>
@@ -2100,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209" s="2">
         <v>45229</v>
       </c>
@@ -2108,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210" s="2">
         <v>45230</v>
       </c>
@@ -2116,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" s="2">
         <v>45231</v>
       </c>
@@ -2124,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" s="2">
         <v>45232</v>
       </c>
@@ -2132,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" s="2">
         <v>45233</v>
       </c>
@@ -2140,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" s="2">
         <v>45236</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" s="2">
         <v>45237</v>
       </c>
@@ -2156,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" s="2">
         <v>45238</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" s="2">
         <v>45239</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" s="2">
         <v>45240</v>
       </c>
@@ -2180,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" s="2">
         <v>45243</v>
       </c>
@@ -2188,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" s="2">
         <v>45244</v>
       </c>
@@ -2196,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221" s="2">
         <v>45245</v>
       </c>
@@ -2204,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" s="2">
         <v>45246</v>
       </c>
@@ -2212,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223" s="2">
         <v>45247</v>
       </c>
@@ -2220,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224" s="2">
         <v>45250</v>
       </c>
@@ -2228,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225" s="2">
         <v>45251</v>
       </c>
@@ -2236,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" s="2">
         <v>45252</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" s="2">
         <v>45254</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" s="2">
         <v>45257</v>
       </c>
@@ -2260,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" s="2">
         <v>45258</v>
       </c>
@@ -2268,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" s="2">
         <v>45259</v>
       </c>
@@ -2276,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231" s="2">
         <v>45260</v>
       </c>
@@ -2284,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" s="2">
         <v>45261</v>
       </c>
@@ -2292,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" s="2">
         <v>45264</v>
       </c>
@@ -2300,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" s="2">
         <v>45265</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" s="2">
         <v>45266</v>
       </c>
@@ -2316,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" s="2">
         <v>45267</v>
       </c>
@@ -2324,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" s="2">
         <v>45268</v>
       </c>
@@ -2332,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" s="2">
         <v>45271</v>
       </c>
@@ -2340,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239" s="2">
         <v>45272</v>
       </c>
@@ -2348,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240" s="2">
         <v>45273</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241" s="2">
         <v>45274</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" s="2">
         <v>45275</v>
       </c>
@@ -2372,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243" s="2">
         <v>45278</v>
       </c>
@@ -2380,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" s="2">
         <v>45279</v>
       </c>
@@ -2388,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" s="2">
         <v>45280</v>
       </c>
@@ -2396,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" s="2">
         <v>45281</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" s="2">
         <v>45282</v>
       </c>
@@ -2412,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" s="2">
         <v>45286</v>
       </c>
@@ -2420,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2">
       <c r="A249" s="2">
         <v>45287</v>
       </c>
@@ -2428,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" s="2">
         <v>45288</v>
       </c>
@@ -2436,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2">
       <c r="A251" s="2">
         <v>45289</v>
       </c>
@@ -2444,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" s="2">
         <v>45293</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2">
       <c r="A253" s="2">
         <v>45294</v>
       </c>
@@ -2460,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="A254" s="2">
         <v>45295</v>
       </c>
@@ -2468,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="A255" s="2">
         <v>45296</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" s="2">
         <v>45299</v>
       </c>
@@ -2484,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" s="2">
         <v>45300</v>
       </c>
@@ -2492,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" s="2">
         <v>45301</v>
       </c>
@@ -2500,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2">
       <c r="A259" s="2">
         <v>45302</v>
       </c>
@@ -2508,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" s="2">
         <v>45303</v>
       </c>
@@ -2516,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2">
       <c r="A261" s="2">
         <v>45307</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" s="2">
         <v>45308</v>
       </c>
@@ -2532,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" s="2">
         <v>45309</v>
       </c>
@@ -2540,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" s="2">
         <v>45310</v>
       </c>
@@ -2548,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" s="2">
         <v>45313</v>
       </c>
@@ -2556,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" s="2">
         <v>45314</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2">
       <c r="A267" s="2">
         <v>45315</v>
       </c>
@@ -2572,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" s="2">
         <v>45316</v>
       </c>
@@ -2580,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2">
       <c r="A269" s="2">
         <v>45317</v>
       </c>
@@ -2588,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="A270" s="2">
         <v>45320</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" s="2">
         <v>45321</v>
       </c>
@@ -2604,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" s="2">
         <v>45322</v>
       </c>
@@ -2612,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" s="2">
         <v>45323</v>
       </c>
@@ -2620,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" s="2">
         <v>45324</v>
       </c>
@@ -2628,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" s="2">
         <v>45327</v>
       </c>
@@ -2636,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2">
       <c r="A276" s="2">
         <v>45328</v>
       </c>
@@ -2644,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" s="2">
         <v>45329</v>
       </c>
@@ -2652,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="A278" s="2">
         <v>45330</v>
       </c>
@@ -2660,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" s="2">
         <v>45331</v>
       </c>
@@ -2668,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" s="2">
         <v>45334</v>
       </c>
@@ -2676,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" s="2">
         <v>45335</v>
       </c>
@@ -2684,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" s="2">
         <v>45336</v>
       </c>
@@ -2692,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" s="2">
         <v>45337</v>
       </c>
@@ -2700,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="A284" s="2">
         <v>45338</v>
       </c>
@@ -2708,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2">
       <c r="A285" s="2">
         <v>45342</v>
       </c>
@@ -2716,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2">
       <c r="A286" s="2">
         <v>45343</v>
       </c>
@@ -2724,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2">
       <c r="A287" s="2">
         <v>45344</v>
       </c>
@@ -2732,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" s="2">
         <v>45345</v>
       </c>
@@ -2740,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" s="2">
         <v>45348</v>
       </c>
@@ -2748,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" s="2">
         <v>45349</v>
       </c>
@@ -2756,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" s="2">
         <v>45350</v>
       </c>
@@ -2764,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" s="2">
         <v>45351</v>
       </c>
@@ -2772,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" s="2">
         <v>45352</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2">
       <c r="A294" s="2">
         <v>45355</v>
       </c>
@@ -2788,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" s="2">
         <v>45356</v>
       </c>
@@ -2796,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2">
       <c r="A296" s="2">
         <v>45357</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" s="2">
         <v>45358</v>
       </c>
@@ -2812,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" s="2">
         <v>45359</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="A299" s="2">
         <v>45362</v>
       </c>
@@ -2828,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="A300" s="2">
         <v>45363</v>
       </c>
@@ -2836,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" s="2">
         <v>45364</v>
       </c>
@@ -2844,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2">
       <c r="A302" s="2">
         <v>45365</v>
       </c>
@@ -2852,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" s="2">
         <v>45366</v>
       </c>
@@ -2860,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2">
       <c r="A304" s="2">
         <v>45369</v>
       </c>
@@ -2868,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" s="2">
         <v>45370</v>
       </c>
@@ -2876,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" s="2">
         <v>45371</v>
       </c>
@@ -2884,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" s="2">
         <v>45372</v>
       </c>
@@ -2892,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" s="2">
         <v>45373</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2">
       <c r="A309" s="2">
         <v>45376</v>
       </c>
@@ -2908,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" s="2">
         <v>45377</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" s="2">
         <v>45378</v>
       </c>
@@ -2924,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2">
       <c r="A312" s="2">
         <v>45379</v>
       </c>
@@ -2932,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" s="2">
         <v>45383</v>
       </c>
@@ -2940,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2">
       <c r="A314" s="2">
         <v>45384</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="A315" s="2">
         <v>45385</v>
       </c>
@@ -2956,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2">
       <c r="A316" s="2">
         <v>45386</v>
       </c>
@@ -2964,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" s="2">
         <v>45387</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2">
       <c r="A318" s="2">
         <v>45390</v>
       </c>
@@ -2980,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" s="2">
         <v>45391</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" s="2">
         <v>45392</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2">
       <c r="A321" s="2">
         <v>45393</v>
       </c>
@@ -3004,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2">
       <c r="A322" s="2">
         <v>45394</v>
       </c>
@@ -3012,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2">
       <c r="A323" s="2">
         <v>45397</v>
       </c>
@@ -3020,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2">
       <c r="A324" s="2">
         <v>45398</v>
       </c>
@@ -3028,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2">
       <c r="A325" s="2">
         <v>45399</v>
       </c>
@@ -3036,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2">
       <c r="A326" s="2">
         <v>45400</v>
       </c>
@@ -3044,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2">
       <c r="A327" s="2">
         <v>45401</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2">
       <c r="A328" s="2">
         <v>45404</v>
       </c>
@@ -3060,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2">
       <c r="A329" s="2">
         <v>45405</v>
       </c>
@@ -3068,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2">
       <c r="A330" s="2">
         <v>45406</v>
       </c>
@@ -3076,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2">
       <c r="A331" s="2">
         <v>45407</v>
       </c>
@@ -3084,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2">
       <c r="A332" s="2">
         <v>45408</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2">
       <c r="A333" s="2">
         <v>45411</v>
       </c>
@@ -3100,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2">
       <c r="A334" s="2">
         <v>45412</v>
       </c>
@@ -3108,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2">
       <c r="A335" s="2">
         <v>45413</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2">
       <c r="A336" s="2">
         <v>45414</v>
       </c>
@@ -3124,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2">
       <c r="A337" s="2">
         <v>45415</v>
       </c>
@@ -3132,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2">
       <c r="A338" s="2">
         <v>45418</v>
       </c>
@@ -3140,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2">
       <c r="A339" s="2">
         <v>45419</v>
       </c>
@@ -3148,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2">
       <c r="A340" s="2">
         <v>45420</v>
       </c>
@@ -3156,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2">
       <c r="A341" s="2">
         <v>45421</v>
       </c>
@@ -3164,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2">
       <c r="A342" s="2">
         <v>45422</v>
       </c>
@@ -3172,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2">
       <c r="A343" s="2">
         <v>45425</v>
       </c>
@@ -3180,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2">
       <c r="A344" s="2">
         <v>45426</v>
       </c>
@@ -3188,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2">
       <c r="A345" s="2">
         <v>45427</v>
       </c>
@@ -3196,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2">
       <c r="A346" s="2">
         <v>45428</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2">
       <c r="A347" s="2">
         <v>45429</v>
       </c>
@@ -3212,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2">
       <c r="A348" s="2">
         <v>45432</v>
       </c>
@@ -3220,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2">
       <c r="A349" s="2">
         <v>45433</v>
       </c>
@@ -3228,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2">
       <c r="A350" s="2">
         <v>45434</v>
       </c>
@@ -3236,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2">
       <c r="A351" s="2">
         <v>45435</v>
       </c>
@@ -3244,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2">
       <c r="A352" s="2">
         <v>45436</v>
       </c>
@@ -3252,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2">
       <c r="A353" s="2">
         <v>45440</v>
       </c>
@@ -3260,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2">
       <c r="A354" s="2">
         <v>45441</v>
       </c>
@@ -3268,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2">
       <c r="A355" s="2">
         <v>45442</v>
       </c>
@@ -3276,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2">
       <c r="A356" s="2">
         <v>45443</v>
       </c>
@@ -3284,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2">
       <c r="A357" s="2">
         <v>45446</v>
       </c>
@@ -3292,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2">
       <c r="A358" s="2">
         <v>45447</v>
       </c>
@@ -3300,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2">
       <c r="A359" s="2">
         <v>45448</v>
       </c>
@@ -3308,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2">
       <c r="A360" s="2">
         <v>45449</v>
       </c>
@@ -3316,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2">
       <c r="A361" s="2">
         <v>45450</v>
       </c>
@@ -3324,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2">
       <c r="A362" s="2">
         <v>45453</v>
       </c>
@@ -3332,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2">
       <c r="A363" s="2">
         <v>45454</v>
       </c>
@@ -3340,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2">
       <c r="A364" s="2">
         <v>45455</v>
       </c>
@@ -3348,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2">
       <c r="A365" s="2">
         <v>45456</v>
       </c>
@@ -3356,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2">
       <c r="A366" s="2">
         <v>45457</v>
       </c>
@@ -3364,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2">
       <c r="A367" s="2">
         <v>45460</v>
       </c>
@@ -3372,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2">
       <c r="A368" s="2">
         <v>45461</v>
       </c>
@@ -3380,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2">
       <c r="A369" s="2">
         <v>45463</v>
       </c>
@@ -3388,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2">
       <c r="A370" s="2">
         <v>45464</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2">
       <c r="A371" s="2">
         <v>45467</v>
       </c>
@@ -3404,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2">
       <c r="A372" s="2">
         <v>45468</v>
       </c>
@@ -3412,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2">
       <c r="A373" s="2">
         <v>45469</v>
       </c>
@@ -3420,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2">
       <c r="A374" s="2">
         <v>45470</v>
       </c>
@@ -3428,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2">
       <c r="A375" s="2">
         <v>45471</v>
       </c>
@@ -3436,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2">
       <c r="A376" s="2">
         <v>45474</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2">
       <c r="A377" s="2">
         <v>45475</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2">
       <c r="A378" s="2">
         <v>45476</v>
       </c>
@@ -3460,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2">
       <c r="A379" s="2">
         <v>45478</v>
       </c>
@@ -3468,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2">
       <c r="A380" s="2">
         <v>45481</v>
       </c>
@@ -3476,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2">
       <c r="A381" s="2">
         <v>45482</v>
       </c>
@@ -3484,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2">
       <c r="A382" s="2">
         <v>45483</v>
       </c>
@@ -3492,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2">
       <c r="A383" s="2">
         <v>45484</v>
       </c>
@@ -3500,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2">
       <c r="A384" s="2">
         <v>45485</v>
       </c>
@@ -3508,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2">
       <c r="A385" s="2">
         <v>45488</v>
       </c>
@@ -3516,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2">
       <c r="A386" s="2">
         <v>45489</v>
       </c>
@@ -3524,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2">
       <c r="A387" s="2">
         <v>45490</v>
       </c>
@@ -3532,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2">
       <c r="A388" s="2">
         <v>45491</v>
       </c>
@@ -3540,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2">
       <c r="A389" s="2">
         <v>45492</v>
       </c>
@@ -3548,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2">
       <c r="A390" s="2">
         <v>45495</v>
       </c>
@@ -3556,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2">
       <c r="A391" s="2">
         <v>45496</v>
       </c>
@@ -3564,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2">
       <c r="A392" s="2">
         <v>45497</v>
       </c>
@@ -3572,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2">
       <c r="A393" s="2">
         <v>45498</v>
       </c>
@@ -3580,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2">
       <c r="A394" s="2">
         <v>45499</v>
       </c>
@@ -3588,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2">
       <c r="A395" s="2">
         <v>45502</v>
       </c>
@@ -3596,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2">
       <c r="A396" s="2">
         <v>45503</v>
       </c>
@@ -3604,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2">
       <c r="A397" s="2">
         <v>45504</v>
       </c>
@@ -3612,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2">
       <c r="A398" s="2">
         <v>45505</v>
       </c>
@@ -3620,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2">
       <c r="A399" s="2">
         <v>45506</v>
       </c>
@@ -3628,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2">
       <c r="A400" s="2">
         <v>45509</v>
       </c>
@@ -3636,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2">
       <c r="A401" s="2">
         <v>45510</v>
       </c>
@@ -3644,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2">
       <c r="A402" s="2">
         <v>45511</v>
       </c>
@@ -3652,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2">
       <c r="A403" s="2">
         <v>45512</v>
       </c>
@@ -3660,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2">
       <c r="A404" s="2">
         <v>45513</v>
       </c>
@@ -3668,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2">
       <c r="A405" s="2">
         <v>45516</v>
       </c>
@@ -3676,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2">
       <c r="A406" s="2">
         <v>45517</v>
       </c>
@@ -3684,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2">
       <c r="A407" s="2">
         <v>45518</v>
       </c>
@@ -3692,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2">
       <c r="A408" s="2">
         <v>45519</v>
       </c>
@@ -3700,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2">
       <c r="A409" s="2">
         <v>45520</v>
       </c>
@@ -3708,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2">
       <c r="A410" s="2">
         <v>45523</v>
       </c>
@@ -3716,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2">
       <c r="A411" s="2">
         <v>45524</v>
       </c>
@@ -3724,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2">
       <c r="A412" s="2">
         <v>45525</v>
       </c>
@@ -3732,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2">
       <c r="A413" s="2">
         <v>45526</v>
       </c>
@@ -3740,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2">
       <c r="A414" s="2">
         <v>45527</v>
       </c>
@@ -3748,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2">
       <c r="A415" s="2">
         <v>45530</v>
       </c>
@@ -3756,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2">
       <c r="A416" s="2">
         <v>45531</v>
       </c>
@@ -3764,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3">
       <c r="A417" s="2">
         <v>45532</v>
       </c>
@@ -3772,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3">
       <c r="A418" s="2">
         <v>45533</v>
       </c>
@@ -3780,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3">
       <c r="A419" s="2">
         <v>45534</v>
       </c>
@@ -3788,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3">
       <c r="A420" s="2">
         <v>45538</v>
       </c>
@@ -3796,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3">
       <c r="A421" s="2">
         <v>45539</v>
       </c>
@@ -3804,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3">
       <c r="A422" s="2">
         <v>45540</v>
       </c>
@@ -3812,6 +3807,94 @@
         <v>1</v>
       </c>
       <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>45544</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>45545</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2">
+        <v>45546</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>45547</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2">
+        <v>45548</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2">
+        <v>45551</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2">
+        <v>45552</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2">
+        <v>45553</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>45554</v>
+      </c>
+      <c r="B432" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
